--- a/results/new_cu_hedac_same/15x15/new_cu_hedac_same_15x15_True_2_500.xlsx
+++ b/results/new_cu_hedac_same/15x15/new_cu_hedac_same_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>91.286</v>
+        <v>55.488</v>
       </c>
       <c r="D2" t="n">
-        <v>91.286</v>
+        <v>55.488</v>
       </c>
       <c r="E2" t="n">
-        <v>1.88693</v>
+        <v>3.081831460000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12836</v>
+        <v>0.19728432</v>
       </c>
       <c r="G2" t="n">
-        <v>0.12836</v>
+        <v>0.19728432</v>
       </c>
       <c r="H2" t="n">
-        <v>11.52921</v>
+        <v>10.7967607</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>6.106753710586626</v>
       </c>
       <c r="J2" t="n">
-        <v>12.73531</v>
+        <v>6.106753710586626</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3319695128221191</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0271525500770918</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0271525500770918</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6362806974923195</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>55.488</v>
+        <v>91.286</v>
       </c>
       <c r="D3" t="n">
-        <v>55.488</v>
+        <v>91.286</v>
       </c>
       <c r="E3" t="n">
-        <v>3.08183</v>
+        <v>1.88692834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.19728</v>
+        <v>0.12836258</v>
       </c>
       <c r="G3" t="n">
-        <v>0.19728</v>
+        <v>0.12836258</v>
       </c>
       <c r="H3" t="n">
-        <v>10.79676</v>
+        <v>11.52921134</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>12.74806771479199</v>
       </c>
       <c r="J3" t="n">
-        <v>6.10064</v>
+        <v>12.74806771479199</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2615647180077185</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01844984568920594</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01844984568920594</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9719034653521571</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>62.142</v>
       </c>
       <c r="E4" t="n">
-        <v>2.81263</v>
+        <v>2.81263116</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25069</v>
+        <v>0.25069254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12535</v>
+        <v>0.12534656</v>
       </c>
       <c r="H4" t="n">
-        <v>3.78076</v>
+        <v>3.78075856</v>
       </c>
       <c r="I4" t="n">
+        <v>5.726855135192348</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.44919228627138</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5208094055657078</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05354433268679467</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02677210871366603</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4890112879869787</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.72113</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>95.748</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8063</v>
+        <v>1.80630206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.18188</v>
+        <v>0.18188218</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09093999999999999</v>
+        <v>0.09094124000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>4.36648</v>
+        <v>4.36648116</v>
       </c>
       <c r="I5" t="n">
+        <v>8.290579196100452</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.58224192499625</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2780525084527564</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.03029797984375898</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01514911378792565</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5599288927137496</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.28228</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.668</v>
+        <v>16.072</v>
       </c>
       <c r="D6" t="n">
-        <v>94.61</v>
+        <v>64.194</v>
       </c>
       <c r="E6" t="n">
-        <v>1.84666</v>
+        <v>2.82603974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.24876</v>
+        <v>0.30619246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06219</v>
+        <v>0.07654820000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.55814</v>
+        <v>1.18651302</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>4.373221482187305</v>
       </c>
       <c r="J6" t="n">
-        <v>5.65241</v>
+        <v>17.47177408792705</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7497863354098065</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.07938490890889369</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0198462128247929</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.307956078591351</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16.072</v>
+        <v>25.668</v>
       </c>
       <c r="D7" t="n">
-        <v>64.194</v>
+        <v>94.61</v>
       </c>
       <c r="E7" t="n">
-        <v>2.82604</v>
+        <v>1.84665818</v>
       </c>
       <c r="F7" t="n">
-        <v>0.30619</v>
+        <v>0.24875764</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07655000000000001</v>
+        <v>0.06218938</v>
       </c>
       <c r="H7" t="n">
-        <v>1.18651</v>
+        <v>1.55814086</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.658074195979974</v>
       </c>
       <c r="J7" t="n">
-        <v>4.36885</v>
+        <v>17.45758960652184</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3382187970593238</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04917224796539548</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01229308110693994</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3059803606889093</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>57.328</v>
       </c>
       <c r="E8" t="n">
-        <v>3.12902</v>
+        <v>3.12901554</v>
       </c>
       <c r="F8" t="n">
-        <v>0.36039</v>
+        <v>0.36039378</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06007</v>
+        <v>0.06006552</v>
       </c>
       <c r="H8" t="n">
-        <v>0.56609</v>
+        <v>0.56608716</v>
       </c>
       <c r="I8" t="n">
+        <v>2.471759533284086</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.80617647211619</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7522617862617028</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.09281849256390275</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01546983806343874</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1828744873046765</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.46929</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>87.492</v>
       </c>
       <c r="E9" t="n">
-        <v>1.99616</v>
+        <v>1.9961643</v>
       </c>
       <c r="F9" t="n">
-        <v>0.27764</v>
+        <v>0.27764202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04627</v>
+        <v>0.04627342</v>
       </c>
       <c r="H9" t="n">
-        <v>0.77362</v>
+        <v>0.7736246600000001</v>
       </c>
       <c r="I9" t="n">
+        <v>4.311968244349738</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15.76283190735342</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.369739979340015</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.05677194239592664</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.009461890468933372</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2043372806911281</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.30765</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.184</v>
+        <v>7.492</v>
       </c>
       <c r="D10" t="n">
-        <v>82.746</v>
+        <v>59.832</v>
       </c>
       <c r="E10" t="n">
-        <v>2.11282</v>
+        <v>3.0224106</v>
       </c>
       <c r="F10" t="n">
-        <v>0.27478</v>
+        <v>0.3567655</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03435</v>
+        <v>0.04459582</v>
       </c>
       <c r="H10" t="n">
-        <v>0.44701</v>
+        <v>0.32952572</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>2.054843245000223</v>
       </c>
       <c r="J10" t="n">
-        <v>3.52337</v>
+        <v>16.37645115110747</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7743537773981486</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.09786249904938245</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01223290309631887</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1159622019947212</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.492</v>
+        <v>13.184</v>
       </c>
       <c r="D11" t="n">
-        <v>59.832</v>
+        <v>82.746</v>
       </c>
       <c r="E11" t="n">
-        <v>3.02241</v>
+        <v>2.11282</v>
       </c>
       <c r="F11" t="n">
-        <v>0.35677</v>
+        <v>0.2747814</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0446</v>
+        <v>0.03434772000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.32953</v>
+        <v>0.4470119</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.526899778004498</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05279</v>
+        <v>15.46064510601638</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3934171375721588</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.05870578507816147</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.007338295412472943</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1382172649985426</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>57.842</v>
       </c>
       <c r="E12" t="n">
-        <v>3.1324</v>
+        <v>3.13240196</v>
       </c>
       <c r="F12" t="n">
-        <v>0.34045</v>
+        <v>0.34044762</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03404</v>
+        <v>0.03404492</v>
       </c>
       <c r="H12" t="n">
-        <v>0.19988</v>
+        <v>0.19987644</v>
       </c>
       <c r="I12" t="n">
+        <v>1.54049025327682</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.3477079813424</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8463506140142173</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1040565023701384</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01040553304879953</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.09040489689664043</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.53895</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>75.61199999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>2.31507</v>
+        <v>2.31506942</v>
       </c>
       <c r="F13" t="n">
-        <v>0.26389</v>
+        <v>0.2638943</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02639</v>
+        <v>0.02638946</v>
       </c>
       <c r="H13" t="n">
-        <v>0.28238</v>
+        <v>0.28237776</v>
       </c>
       <c r="I13" t="n">
+        <v>3.371817656489928</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.17431756936165</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4425117447521034</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.05393090090342001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.005392926814602189</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.09603905325482215</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.36844</v>
       </c>
     </row>
   </sheetData>

--- a/results/new_cu_hedac_same/15x15/new_cu_hedac_same_15x15_True_2_500.xlsx
+++ b/results/new_cu_hedac_same/15x15/new_cu_hedac_same_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/new_cu_hedac_same/15x15/new_cu_hedac_same_15x15_True_2_500.xlsx
+++ b/results/new_cu_hedac_same/15x15/new_cu_hedac_same_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.19728432</v>
       </c>
       <c r="G2" t="n">
-        <v>0.19728432</v>
+        <v>10.79677</v>
       </c>
       <c r="H2" t="n">
-        <v>10.7967607</v>
+        <v>597.8260182199999</v>
       </c>
       <c r="I2" t="n">
         <v>6.106753710586626</v>
@@ -548,10 +548,10 @@
         <v>0.0271525500770918</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0271525500770918</v>
+        <v>0.6362839830655896</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6362806974923195</v>
+        <v>63.23605810606893</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.12836258</v>
       </c>
       <c r="G3" t="n">
-        <v>0.12836258</v>
+        <v>11.52918716</v>
       </c>
       <c r="H3" t="n">
-        <v>11.52921134</v>
+        <v>1055.53156246</v>
       </c>
       <c r="I3" t="n">
         <v>12.74806771479199</v>
@@ -595,10 +595,10 @@
         <v>0.01844984568920594</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01844984568920594</v>
+        <v>0.9718996719642737</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9719034653521571</v>
+        <v>192.4284507998276</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.25069254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12534656</v>
+        <v>3.78076368</v>
       </c>
       <c r="H4" t="n">
-        <v>3.78075856</v>
+        <v>117.94362866</v>
       </c>
       <c r="I4" t="n">
         <v>5.726855135192348</v>
@@ -642,10 +642,10 @@
         <v>0.05354433268679467</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02677210871366603</v>
+        <v>0.489009486348819</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4890112879869787</v>
+        <v>28.21880362596037</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.18188218</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09094124000000001</v>
+        <v>4.36648536</v>
       </c>
       <c r="H5" t="n">
-        <v>4.36648116</v>
+        <v>215.55365134</v>
       </c>
       <c r="I5" t="n">
         <v>8.290579196100452</v>
@@ -689,10 +689,10 @@
         <v>0.03029797984375898</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01514911378792565</v>
+        <v>0.5599332302859219</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5599288927137496</v>
+        <v>55.77066125852885</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.30619246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07654820000000001</v>
+        <v>1.18651352</v>
       </c>
       <c r="H6" t="n">
-        <v>1.18651302</v>
+        <v>19.7299739</v>
       </c>
       <c r="I6" t="n">
         <v>4.373221482187305</v>
@@ -736,10 +736,10 @@
         <v>0.07938490890889369</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0198462128247929</v>
+        <v>0.3079555673153038</v>
       </c>
       <c r="N6" t="n">
-        <v>0.307956078591351</v>
+        <v>9.327538351386101</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.24875764</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06218938</v>
+        <v>1.55814054</v>
       </c>
       <c r="H7" t="n">
-        <v>1.55814086</v>
+        <v>40.88412344</v>
       </c>
       <c r="I7" t="n">
         <v>5.658074195979974</v>
@@ -783,10 +783,10 @@
         <v>0.04917224796539548</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01229308110693994</v>
+        <v>0.305981178834762</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3059803606889093</v>
+        <v>15.71726688320439</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.36039378</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06006552</v>
+        <v>0.56608654</v>
       </c>
       <c r="H8" t="n">
-        <v>0.56608716</v>
+        <v>5.680898699999999</v>
       </c>
       <c r="I8" t="n">
         <v>2.471759533284086</v>
@@ -830,10 +830,10 @@
         <v>0.09281849256390275</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01546983806343874</v>
+        <v>0.1828766325731941</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1828744873046765</v>
+        <v>3.214605881882596</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.27764202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04627342</v>
+        <v>0.7736206600000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7736246600000001</v>
+        <v>13.7672833</v>
       </c>
       <c r="I9" t="n">
         <v>4.311968244349738</v>
@@ -877,10 +877,10 @@
         <v>0.05677194239592664</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009461890468933372</v>
+        <v>0.204335321022576</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2043372806911281</v>
+        <v>7.375229099642515</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.3567655</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04459582</v>
+        <v>0.32952664</v>
       </c>
       <c r="H10" t="n">
-        <v>0.32952572</v>
+        <v>2.6020052</v>
       </c>
       <c r="I10" t="n">
         <v>2.054843245000223</v>
@@ -924,10 +924,10 @@
         <v>0.09786249904938245</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01223290309631887</v>
+        <v>0.1159635243767719</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1159622019947212</v>
+        <v>1.498364126726572</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.2747814</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03434772000000001</v>
+        <v>0.44701162</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4470119</v>
+        <v>6.23821166</v>
       </c>
       <c r="I11" t="n">
         <v>3.526899778004498</v>
@@ -971,10 +971,10 @@
         <v>0.05870578507816147</v>
       </c>
       <c r="M11" t="n">
-        <v>0.007338295412472943</v>
+        <v>0.1382148198494925</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1382172649985426</v>
+        <v>3.731312673529347</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.34044762</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03404492</v>
+        <v>0.1998774</v>
       </c>
       <c r="H12" t="n">
-        <v>0.19987644</v>
+        <v>1.25345386</v>
       </c>
       <c r="I12" t="n">
         <v>1.54049025327682</v>
@@ -1018,10 +1018,10 @@
         <v>0.1040565023701384</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01040553304879953</v>
+        <v>0.09040462050834856</v>
       </c>
       <c r="N12" t="n">
-        <v>0.09040489689664043</v>
+        <v>0.8774745004838026</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.2638943</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02638946</v>
+        <v>0.28237826</v>
       </c>
       <c r="H13" t="n">
-        <v>0.28237776</v>
+        <v>3.31140634</v>
       </c>
       <c r="I13" t="n">
         <v>3.371817656489928</v>
@@ -1065,10 +1065,10 @@
         <v>0.05393090090342001</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005392926814602189</v>
+        <v>0.09604014740408928</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09603905325482215</v>
+        <v>2.392863867332192</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>
